--- a/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
+++ b/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/ncp-gop-transect-summer-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E683A6C-F087-F343-8552-E4D3042BBCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B3156-C402-594E-ABB1-F990B0C0704B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13580" xr2:uid="{BF86A6EF-DB82-B247-BFE1-0792534894F0}"/>
   </bookViews>
@@ -108,15 +108,6 @@
     <t>biosat</t>
   </si>
   <si>
-    <t>Biological saturation, the oxygen-argon ratio divided by the equilibrium value of that ratio</t>
-  </si>
-  <si>
-    <t>O2_Ar_corrected</t>
-  </si>
-  <si>
-    <t>Oxygen-argon ratio corrected for air values</t>
-  </si>
-  <si>
     <t>ncp</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>Salinity of sampling in PSU</t>
+  </si>
+  <si>
+    <t>O2_Ar_ratio</t>
+  </si>
+  <si>
+    <t>Oxygen-argon ratio from underway sample corrected for air values</t>
+  </si>
+  <si>
+    <t>Percent biological saturation, the oxygen-argon ratio divided by the equilibrium value of that ratio</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,10 +608,10 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -628,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -648,18 +648,18 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -668,50 +668,50 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="G11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
+++ b/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/ncp-gop-transect-summer-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B3156-C402-594E-ABB1-F990B0C0704B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FFD2CD-33A0-5C4B-924B-0AF2BEAF38EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13580" xr2:uid="{BF86A6EF-DB82-B247-BFE1-0792534894F0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>attributeName</t>
   </si>
@@ -54,9 +54,6 @@
     <t>missingValueCodeExplanation</t>
   </si>
   <si>
-    <t>utc_datetime</t>
-  </si>
-  <si>
     <t>Date and time in UTC</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>YYYY-MM-DD hh:mm:ss</t>
   </si>
   <si>
-    <t>matlab_datetime</t>
-  </si>
-  <si>
     <t>UTC date and time in MATLAB serial date number format</t>
   </si>
   <si>
@@ -78,18 +72,12 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
     <t>Latitude of sample event</t>
   </si>
   <si>
     <t>degree</t>
   </si>
   <si>
-    <t>lon</t>
-  </si>
-  <si>
     <t>Longitude of sample event</t>
   </si>
   <si>
@@ -135,13 +123,34 @@
     <t>Salinity of sampling in PSU</t>
   </si>
   <si>
-    <t>O2_Ar_ratio</t>
-  </si>
-  <si>
-    <t>Oxygen-argon ratio from underway sample corrected for air values</t>
-  </si>
-  <si>
     <t>Percent biological saturation, the oxygen-argon ratio divided by the equilibrium value of that ratio</t>
+  </si>
+  <si>
+    <t>O2_Ar_ratio_corrected</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>datetime_utc</t>
+  </si>
+  <si>
+    <t>datetime_utc_matlab</t>
+  </si>
+  <si>
+    <t>Oxygen-argon ratio of EIMS sample from underway corrected for air values</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>Depth of sample below sea surface. URI http://vocab.nerc.ac.uk/collection/P09/current/DEPH/</t>
+  </si>
+  <si>
+    <t>meter</t>
   </si>
 </sst>
 </file>
@@ -503,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C8F72C-19EE-604E-BE77-CE5C774DA497}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,178 +549,192 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
+++ b/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/ncp-gop-transect-summer-2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FFD2CD-33A0-5C4B-924B-0AF2BEAF38EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13580" xr2:uid="{BF86A6EF-DB82-B247-BFE1-0792534894F0}"/>
+    <workbookView xWindow="876" yWindow="1464" windowWidth="24636" windowHeight="13584"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,9 +101,6 @@
     <t>Rate of net community production integrated over the mixed layer</t>
   </si>
   <si>
-    <t>micromolePerMeterSquaredPerDay</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -151,13 +147,16 @@
   </si>
   <si>
     <t>meter</t>
+  </si>
+  <si>
+    <t>millimolePerMeterSquaredPerDay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,20 +510,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C8F72C-19EE-604E-BE77-CE5C774DA497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,9 +546,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -561,9 +560,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -575,9 +574,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -589,9 +588,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -603,21 +602,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -631,18 +630,18 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -651,18 +650,18 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -671,18 +670,18 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -691,13 +690,13 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -708,33 +707,33 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
         <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
+++ b/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>attributeName</t>
   </si>
@@ -80,18 +80,6 @@
     <t>Longitude of sample event</t>
   </si>
   <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>Temperature of sampling</t>
-  </si>
-  <si>
-    <t>celsius</t>
-  </si>
-  <si>
-    <t>sal</t>
-  </si>
-  <si>
     <t>biosat</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
   </si>
   <si>
     <t>Missing value</t>
-  </si>
-  <si>
-    <t>Salinity of sampling in PSU</t>
   </si>
   <si>
     <t>Percent biological saturation, the oxygen-argon ratio divided by the equilibrium value of that ratio</t>
@@ -511,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -548,7 +533,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -562,7 +547,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -576,7 +561,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -590,7 +575,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -604,16 +589,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -621,27 +606,27 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -650,90 +635,50 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
+++ b/ncp-gop-transect-summer-2018/ncplterEn617.xlsx
@@ -107,9 +107,6 @@
     <t>Percent biological saturation, the oxygen-argon ratio divided by the equilibrium value of that ratio</t>
   </si>
   <si>
-    <t>O2_Ar_ratio_corrected</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -134,26 +131,23 @@
     <t>meter</t>
   </si>
   <si>
-    <t>millimolePerMeterSquaredPerDay</t>
+    <t>O2_Ar_ratio</t>
+  </si>
+  <si>
+    <t>millimoleOxygenPerMeterSquaredPerDay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,12 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,16 +492,16 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,9 +524,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -545,9 +538,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -559,9 +552,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -573,9 +566,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -587,21 +580,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -621,12 +614,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -641,7 +634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -651,7 +644,7 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="s">
@@ -661,7 +654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
